--- a/AWS/Test_ELKs.xlsx
+++ b/AWS/Test_ELKs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="22110" windowHeight="8760"/>
+    <workbookView xWindow="285" yWindow="135" windowWidth="20730" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,9 +544,9 @@
     <col min="2" max="2" width="11.5703125" style="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1060,13 +1060,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2"/>
-    <hyperlink ref="J3"/>
-    <hyperlink ref="J4"/>
-    <hyperlink ref="J5"/>
-    <hyperlink ref="J13"/>
-    <hyperlink ref="J15"/>
-    <hyperlink ref="J14"/>
+    <hyperlink ref="J2" display="https://search-elkservicearchitecture-jz4sluz2voumevqhnh4gdntkgm.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover?_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))&amp;_"/>
+    <hyperlink ref="J3" display="https://search-elkservicearchitecture-jz4sluz2voumevqhnh4gdntkgm.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover?_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))&amp;_"/>
+    <hyperlink ref="J4" display="https://search-elkservicearchitecture-jz4sluz2voumevqhnh4gdntkgm.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-26T09:30:51.624Z',mode:absolute,to:'2016-05-26T09:41:16.721Z'))&amp;_"/>
+    <hyperlink ref="J5" display="https://search-elkservicearchitecture-jz4sluz2voumevqhnh4gdntkgm.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover?_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))&amp;_"/>
+    <hyperlink ref="J13" display="http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T10:47:56.035Z',mode:absolute,to:'2016-05-26T10:49:24.960Z'))&amp;_a=(columns:!(_source),index:'logstash-*',in"/>
+    <hyperlink ref="J15" display="http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T11:07:39.714Z',mode:absolute,to:'2016-05-26T11:16:23.907Z'))&amp;_a=(columns:!(_source),index:'logstash-*',in"/>
+    <hyperlink ref="J14" display="http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T10:55:44.920Z',mode:absolute,to:'2016-05-26T10:58:00.000Z'))&amp;_a=(columns:!(_source),index:'logstash-*',in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AWS/Test_ELKs.xlsx
+++ b/AWS/Test_ELKs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Nº servers</t>
   </si>
@@ -57,9 +57,6 @@
     <t>2 ( 2 instancies logstash)</t>
   </si>
   <si>
-    <t>prova 5</t>
-  </si>
-  <si>
     <t>prova 6</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T11:07:39.714Z',mode:absolute,to:'2016-05-26T11:16:23.907Z'))&amp;_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))</t>
   </si>
   <si>
-    <t>prova 4.1</t>
-  </si>
-  <si>
     <t>(inifite max Open files)</t>
   </si>
   <si>
@@ -151,6 +145,33 @@
   </si>
   <si>
     <t xml:space="preserve">La maquina es va plenar i he hagut de eliminar tots els nodes (5.5/5.5GB la resta de gigas estan ocupats per altres coses 5.5/8.8GB)/ Ha petat elastic search i s'ha reiniciat sol. </t>
+  </si>
+  <si>
+    <t>prova 4.2</t>
+  </si>
+  <si>
+    <t>prova 5.2</t>
+  </si>
+  <si>
+    <t>prova 5.1</t>
+  </si>
+  <si>
+    <t>prova 89</t>
+  </si>
+  <si>
+    <t>Docker 2-ELK(large-micro)</t>
+  </si>
+  <si>
+    <t>Docker 2-ELK(large-large)</t>
+  </si>
+  <si>
+    <t>Docker 3-ELK(large-large-large)</t>
+  </si>
+  <si>
+    <t>Docker 2-ELK(large-large-large-large)</t>
+  </si>
+  <si>
+    <t>He fet les probes malament per que he fet sobre 3kk en comptes de 4 pero eran uns 375k/min</t>
   </si>
 </sst>
 </file>
@@ -533,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +567,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -569,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -602,7 +623,7 @@
         <v>65</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -632,7 +653,7 @@
         <v>101</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -663,7 +684,7 @@
         <v>550</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -694,10 +715,10 @@
         <v>1298</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,32 +726,32 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -756,10 +777,10 @@
         <v>9</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -783,13 +804,13 @@
         <v>193548.38709677418</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>62</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -813,14 +834,14 @@
         <v>250001.25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <f>60+45-9</f>
         <v>96</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -844,19 +865,19 @@
         <v>257510.72961373391</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <f>54-8+(15-8)*60</f>
         <v>466</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
         <v>1000000</v>
@@ -875,19 +896,19 @@
         <v>186066.04651162791</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16">
         <f>21.5*60</f>
         <v>1290</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>1000000</v>
@@ -906,19 +927,19 @@
         <v>289505.42822677927</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <f>(61-47)*60-(35-24)</f>
         <v>829</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
         <v>1000000</v>
@@ -937,19 +958,19 @@
         <v>293398.53300733498</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <f>13*60+38</f>
         <v>818</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
         <v>1000000</v>
@@ -968,94 +989,213 @@
         <v>303797.4683544304</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <f>13*60+10</f>
         <v>790</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>12</v>
+      </c>
+      <c r="F20" s="6">
+        <f>C20*60/H20</f>
+        <v>172786.17710583154</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="H20">
+        <f>(45-22)*60+43-34</f>
+        <v>1389</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F21" s="6">
+        <f>C21*60/H21</f>
+        <v>266666.66666666669</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <f>(22-7)*60</f>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2">
         <v>1000000</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>12</v>
+      </c>
+      <c r="F22" s="6">
+        <f>C22*60/H22</f>
+        <v>342857.14285714284</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="H22">
+        <f>(26-14)*60+15-35</f>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>1000000</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f>C23*60/H23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C24" s="6">
+        <v>200000</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6">
+        <f>C24*60/H22</f>
+        <v>17142.857142857141</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="6">
+        <v>400000</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="e">
+        <f>C25*60/H23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6" t="e">
+        <f>C26*60/H24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="e">
+        <f>C27*60/H25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AWS/Test_ELKs.xlsx
+++ b/AWS/Test_ELKs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="20730" windowHeight="8760"/>
+    <workbookView xWindow="285" yWindow="195" windowWidth="20730" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Nº servers</t>
   </si>
@@ -57,18 +57,6 @@
     <t>2 ( 2 instancies logstash)</t>
   </si>
   <si>
-    <t>prova 6</t>
-  </si>
-  <si>
-    <t>prova 7</t>
-  </si>
-  <si>
-    <t>prova 8</t>
-  </si>
-  <si>
-    <t>Docker ELK &amp; ELB</t>
-  </si>
-  <si>
     <t>https://search-elkservicearchitecture-jz4sluz2voumevqhnh4gdntkgm.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover?_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))&amp;_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-26T08:45:20.318Z',mode:absolute,to:'2016-05-26T08:47:00.000Z'))</t>
   </si>
   <si>
@@ -90,12 +78,6 @@
     <t>Ha petat el elasticsearch, se ha reiniciat i ha fet 420 traças repetides de més</t>
   </si>
   <si>
-    <t>http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T10:47:56.035Z',mode:absolute,to:'2016-05-26T10:49:24.960Z'))&amp;_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))</t>
-  </si>
-  <si>
-    <t>http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T10:55:44.920Z',mode:absolute,to:'2016-05-26T10:58:00.000Z'))&amp;_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))</t>
-  </si>
-  <si>
     <t>AWS ELK VERSION</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>Docker ELK (nom: Elasitcsearch_TEST)</t>
   </si>
   <si>
-    <t>http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T11:07:39.714Z',mode:absolute,to:'2016-05-26T11:16:23.907Z'))&amp;_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))</t>
-  </si>
-  <si>
     <t>(inifite max Open files)</t>
   </si>
   <si>
@@ -156,9 +135,6 @@
     <t>prova 5.1</t>
   </si>
   <si>
-    <t>prova 89</t>
-  </si>
-  <si>
     <t>Docker 2-ELK(large-micro)</t>
   </si>
   <si>
@@ -168,10 +144,31 @@
     <t>Docker 3-ELK(large-large-large)</t>
   </si>
   <si>
-    <t>Docker 2-ELK(large-large-large-large)</t>
-  </si>
-  <si>
-    <t>He fet les probes malament per que he fet sobre 3kk en comptes de 4 pero eran uns 375k/min</t>
+    <t>prova 6.1</t>
+  </si>
+  <si>
+    <t>prova 6.2</t>
+  </si>
+  <si>
+    <t>Docker 4-ELK(large-large-large-large)</t>
+  </si>
+  <si>
+    <t>nº Instancias Logsatsh</t>
+  </si>
+  <si>
+    <t>Nº Instancias Elastic</t>
+  </si>
+  <si>
+    <t>Velocidad Logstash</t>
+  </si>
+  <si>
+    <t>Velocidad elasticsearch</t>
+  </si>
+  <si>
+    <t>3 ( 2 instancies logstash)</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -202,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +255,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -554,23 +567,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -590,13 +605,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -623,10 +638,10 @@
         <v>65</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -653,10 +668,10 @@
         <v>101</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -684,10 +699,10 @@
         <v>550</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -715,49 +730,53 @@
         <v>1298</v>
       </c>
       <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <f>257500*2</f>
+        <v>515000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -777,13 +796,25 @@
         <v>9</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -804,16 +835,27 @@
         <v>193548.38709677418</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <v>62</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <f>F13/I13</f>
+        <v>193548.38709677418</v>
+      </c>
+      <c r="L13" s="10">
+        <f>F13/J13</f>
+        <v>193548.38709677418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -830,21 +872,32 @@
         <v>12</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F23" si="1">C14*60/H14</f>
+        <f t="shared" ref="F14:F19" si="1">C14*60/H14</f>
         <v>250001.25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H14">
         <f>60+45-9</f>
         <v>96</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" ref="K14:K19" si="2">F14/I14</f>
+        <v>125000.625</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" ref="L14:L19" si="3">F14/J14</f>
+        <v>250001.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -865,19 +918,30 @@
         <v>257510.72961373391</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H15">
         <f>54-8+(15-8)*60</f>
         <v>466</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="2"/>
+        <v>257510.72961373391</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="3"/>
+        <v>257510.72961373391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
         <v>1000000</v>
@@ -896,19 +960,33 @@
         <v>186066.04651162791</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <f>21.5*60</f>
         <v>1290</v>
       </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="2"/>
+        <v>93033.023255813954</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="3"/>
+        <v>186066.04651162791</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <v>1000000</v>
@@ -927,19 +1005,33 @@
         <v>289505.42822677927</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H17">
         <f>(61-47)*60-(35-24)</f>
         <v>829</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="2"/>
+        <v>144752.71411338964</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="3"/>
+        <v>289505.42822677927</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="B18" s="2">
         <v>1000000</v>
@@ -958,19 +1050,33 @@
         <v>293398.53300733498</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H18">
         <f>13*60+38</f>
         <v>818</v>
       </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="2"/>
+        <v>146699.26650366749</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="3"/>
+        <v>293398.53300733498</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>1000000</v>
@@ -989,214 +1095,364 @@
         <v>303797.4683544304</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H19">
         <f>13*60+10</f>
         <v>790</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="2"/>
+        <v>151898.7341772152</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="3"/>
+        <v>303797.4683544304</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
         <v>1000000</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>4000000</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="6">
-        <f>C20*60/H20</f>
+      <c r="F21" s="6">
+        <f>C21*60/H21</f>
         <v>172786.17710583154</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20">
+      <c r="G21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21">
         <f>(45-22)*60+43-34</f>
         <v>1389</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="10">
+        <f>F21/I21</f>
+        <v>86393.088552915768</v>
+      </c>
+      <c r="L21" s="10">
+        <f>F21/J21</f>
+        <v>86393.088552915768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2">
         <v>1000000</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="6">
         <v>4000000</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="6">
-        <f>C21*60/H21</f>
+      <c r="F23" s="6">
+        <f>C23*60/H23</f>
         <v>266666.66666666669</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21">
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23">
         <f>(22-7)*60</f>
         <v>900</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" s="10">
+        <f>F23/I23</f>
+        <v>133333.33333333334</v>
+      </c>
+      <c r="L23" s="10">
+        <f>F23/J23</f>
+        <v>133333.33333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
         <v>1000000</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C24" s="6">
         <v>4000000</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="6">
-        <f>C22*60/H22</f>
+      <c r="F24" s="6">
+        <f>C24*60/H24</f>
         <v>342857.14285714284</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22">
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24">
         <f>(26-14)*60+15-35</f>
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" s="10">
+        <f>F24/I24</f>
+        <v>171428.57142857142</v>
+      </c>
+      <c r="L24" s="10">
+        <f>F24/J24</f>
+        <v>114285.71428571428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
         <v>1000000</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C25" s="6">
         <v>4000000</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6" t="e">
-        <f>C23*60/H23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C24" s="6">
-        <v>200000</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="6">
-        <f>C24*60/H22</f>
-        <v>17142.857142857141</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C25" s="6">
-        <v>400000</v>
-      </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6" t="e">
-        <f>C25*60/H23</f>
-        <v>#DIV/0!</v>
+      <c r="F25" s="6">
+        <f>C25*60/H25</f>
+        <v>392798.69067103107</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <f>10*60+23-12</f>
+        <v>611</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="10">
+        <f>F25/I25</f>
+        <v>196399.34533551554</v>
+      </c>
+      <c r="L25" s="10">
+        <f>F25/J25</f>
+        <v>98199.672667757768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="12">
         <v>1000000</v>
       </c>
-      <c r="C26" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="6" t="e">
-        <f>C26*60/H24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="C27" s="13">
+        <v>6000000</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="13">
+        <f>C27*60/H27</f>
+        <v>374220.37422037421</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="7">
+        <f>(46-30)*60+57-55</f>
+        <v>962</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3</v>
+      </c>
+      <c r="K27" s="14">
+        <f>F27/I27</f>
+        <v>124740.12474012474</v>
+      </c>
+      <c r="L27" s="14">
+        <f>F27/J27</f>
+        <v>124740.12474012474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="12">
         <v>1000000</v>
       </c>
-      <c r="C27" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="6" t="e">
-        <f>C27*60/H25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C28" s="13">
+        <v>6000000</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="13">
+        <f>C28*60/H28</f>
+        <v>461538.46153846156</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="7">
+        <f>13*60</f>
+        <v>780</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4</v>
+      </c>
+      <c r="K28" s="14">
+        <f>F28/I28</f>
+        <v>153846.15384615384</v>
+      </c>
+      <c r="L28" s="14">
+        <f>F28/J28</f>
+        <v>115384.61538461539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" s="1"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="10">
+        <f>MAX(K13:K28)</f>
+        <v>257510.72961373391</v>
+      </c>
+      <c r="L29" s="10">
+        <f>MAX(L13:L28)</f>
+        <v>303797.4683544304</v>
+      </c>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" s="1"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31" s="1"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32" s="1"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" s="1"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1204,9 +1460,6 @@
     <hyperlink ref="J3" display="https://search-elkservicearchitecture-jz4sluz2voumevqhnh4gdntkgm.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover?_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))&amp;_"/>
     <hyperlink ref="J4" display="https://search-elkservicearchitecture-jz4sluz2voumevqhnh4gdntkgm.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-26T09:30:51.624Z',mode:absolute,to:'2016-05-26T09:41:16.721Z'))&amp;_"/>
     <hyperlink ref="J5" display="https://search-elkservicearchitecture-jz4sluz2voumevqhnh4gdntkgm.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover?_a=(columns:!(_source),index:'logstash-*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'*')),sort:!('@timestamp',desc))&amp;_"/>
-    <hyperlink ref="J13" display="http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T10:47:56.035Z',mode:absolute,to:'2016-05-26T10:49:24.960Z'))&amp;_a=(columns:!(_source),index:'logstash-*',in"/>
-    <hyperlink ref="J15" display="http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T11:07:39.714Z',mode:absolute,to:'2016-05-26T11:16:23.907Z'))&amp;_a=(columns:!(_source),index:'logstash-*',in"/>
-    <hyperlink ref="J14" display="http://ec2-52-203-178-151.compute-1.amazonaws.com:5601/app/kibana#/discover?_g=(refreshInterval:(display:Off,pause:!f,value:0),time:(from:'2016-05-26T10:55:44.920Z',mode:absolute,to:'2016-05-26T10:58:00.000Z'))&amp;_a=(columns:!(_source),index:'logstash-*',in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
